--- a/webapp/artifacts/Rebate-Claim-Template.xlsx
+++ b/webapp/artifacts/Rebate-Claim-Template.xlsx
@@ -86,14 +86,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="7">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="181" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="182" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="181" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -112,6 +111,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -253,11 +257,6 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -628,80 +627,80 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -721,22 +720,25 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1069,13 +1071,13 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="5" width="11.287037037037" style="2" customWidth="1"/>
     <col min="6" max="6" width="21" style="2" customWidth="1"/>
@@ -1088,14 +1090,13 @@
     <col min="13" max="13" width="13.712962962963" style="2" customWidth="1"/>
     <col min="14" max="14" width="19.712962962963" style="2" customWidth="1"/>
     <col min="15" max="15" width="21.287037037037" style="2" customWidth="1"/>
-    <col min="16" max="17" width="3.28703703703704" style="2" customWidth="1"/>
-    <col min="18" max="21" width="9.71296296296296" style="2" customWidth="1"/>
-    <col min="22" max="22" width="11" style="2" customWidth="1"/>
-    <col min="23" max="23" width="7.28703703703704" style="2" customWidth="1"/>
-    <col min="24" max="24" width="18.8518518518519" style="2" customWidth="1"/>
+    <col min="16" max="19" width="9.71296296296296" style="2" customWidth="1"/>
+    <col min="20" max="20" width="11" style="2" customWidth="1"/>
+    <col min="21" max="21" width="7.28703703703704" style="2" customWidth="1"/>
+    <col min="22" max="22" width="18.8518518518519" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="43.2" spans="1:24">
+    <row r="1" s="1" customFormat="1" ht="43.2" spans="1:22">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1135,43 +1136,201 @@
       <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="8"/>
+      <c r="P1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="R1" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="15:21">
-      <c r="O2" s="10"/>
-      <c r="P2" s="11"/>
+    <row r="2" spans="1:22">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
       <c r="R2" s="12"/>
       <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="13"/>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="13"/>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="13"/>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="13"/>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="13"/>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="13"/>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
